--- a/RNN_python/output_data_test/anom_data4.xlsx
+++ b/RNN_python/output_data_test/anom_data4.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43073</v>
+        <v>43063</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.843687267411809</v>
+        <v>35.33009925720781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43073.04166666666</v>
+        <v>43063.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.646440472132383</v>
+        <v>78.01200679624996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43073.08333333334</v>
+        <v>43063.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4028827720200923</v>
+        <v>83.27207973808461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43073.125</v>
+        <v>43063.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3.781182249215504</v>
+        <v>118.7202215300235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43073.16666666666</v>
+        <v>43063.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>8.149702072290253</v>
+        <v>115.9844157371158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43073.20833333334</v>
+        <v>43063.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>12.36119181060937</v>
+        <v>109.3860166912871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43073.25</v>
+        <v>43063.25</v>
       </c>
       <c r="D8" t="n">
-        <v>34.60084169934072</v>
+        <v>106.1606905245129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43073.29166666666</v>
+        <v>43063.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>250.270603441084</v>
+        <v>109.397594962083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43073.33333333334</v>
+        <v>43063.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8928509006166</v>
+        <v>122.0197119760541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43073.375</v>
+        <v>43063.375</v>
       </c>
       <c r="D11" t="n">
-        <v>431.8995348621362</v>
+        <v>147.2705996972035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43073.41666666666</v>
+        <v>43063.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>378.0262537533072</v>
+        <v>178.7029373308947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43073.45833333334</v>
+        <v>43063.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6152610869276</v>
+        <v>193.2943269956907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43073.5</v>
+        <v>43063.5</v>
       </c>
       <c r="D14" t="n">
-        <v>278.2044734566438</v>
+        <v>167.8530347872637</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43073.54166666666</v>
+        <v>43063.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>231.5466408538998</v>
+        <v>118.8128078117702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43073.58333333334</v>
+        <v>43063.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>186.4082454989228</v>
+        <v>71.73326656286402</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43073.625</v>
+        <v>43063.625</v>
       </c>
       <c r="D17" t="n">
-        <v>147.6208804551983</v>
+        <v>32.36701916434602</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43073.66666666666</v>
+        <v>43063.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>115.1579077431449</v>
+        <v>-0.531280052131649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43073.70833333334</v>
+        <v>43063.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>88.21698661119615</v>
+        <v>-29.02413990384395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43073.75</v>
+        <v>43063.75</v>
       </c>
       <c r="D20" t="n">
-        <v>66.28939944027712</v>
+        <v>-53.29519856946146</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43073.79166666666</v>
+        <v>43063.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>49.19167088273019</v>
+        <v>-72.98594492359706</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43073.83333333334</v>
+        <v>43063.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>36.78724643415529</v>
+        <v>-88.59866241876563</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43073.875</v>
+        <v>43063.875</v>
       </c>
       <c r="D23" t="n">
-        <v>28.75087928862497</v>
+        <v>-100.9720354760342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43073.91666666666</v>
+        <v>43063.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>24.39820304383888</v>
+        <v>-110.8417241948505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43073.95833333334</v>
+        <v>43063.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>22.80652651567203</v>
+        <v>-118.7762861905348</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43073</v>
+        <v>43063</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43073.04166666666</v>
+        <v>43063.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43073.08333333334</v>
+        <v>43063.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43073.125</v>
+        <v>43063.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43073.16666666666</v>
+        <v>43063.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43073.20833333334</v>
+        <v>43063.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43073.25</v>
+        <v>43063.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43073.29166666666</v>
+        <v>43063.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43073.33333333334</v>
+        <v>43063.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43073.375</v>
+        <v>43063.375</v>
       </c>
       <c r="D11" t="n">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43073.41666666666</v>
+        <v>43063.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>454</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43073.45833333334</v>
+        <v>43063.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>334</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43073.5</v>
+        <v>43063.5</v>
       </c>
       <c r="D14" t="n">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43073.54166666666</v>
+        <v>43063.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43073.58333333334</v>
+        <v>43063.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>260</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43073.625</v>
+        <v>43063.625</v>
       </c>
       <c r="D17" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43073.66666666666</v>
+        <v>43063.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43073.70833333334</v>
+        <v>43063.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43073.75</v>
+        <v>43063.75</v>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43073.79166666666</v>
+        <v>43063.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43073.83333333334</v>
+        <v>43063.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43073.875</v>
+        <v>43063.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43073.91666666666</v>
+        <v>43063.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43073.95833333334</v>
+        <v>43063.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data4.xlsx
+++ b/RNN_python/output_data_test/anom_data4.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43063</v>
+        <v>43067</v>
       </c>
       <c r="D2" t="n">
-        <v>35.33009925720781</v>
+        <v>-22.4074928587535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43063.04166666666</v>
+        <v>43067.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>78.01200679624996</v>
+        <v>-28.50033665197867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43063.08333333334</v>
+        <v>43067.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>83.27207973808461</v>
+        <v>9.312914715565938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43063.125</v>
+        <v>43067.125</v>
       </c>
       <c r="D5" t="n">
-        <v>118.7202215300235</v>
+        <v>25.12007858647949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43063.16666666666</v>
+        <v>43067.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>115.9844157371158</v>
+        <v>24.47619492947003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43063.20833333334</v>
+        <v>43067.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>109.3860166912871</v>
+        <v>34.05254399588952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43063.25</v>
+        <v>43067.25</v>
       </c>
       <c r="D8" t="n">
-        <v>106.1606905245129</v>
+        <v>178.6917824893482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43063.29166666666</v>
+        <v>43067.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>109.397594962083</v>
+        <v>443.2785592856606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43063.33333333334</v>
+        <v>43067.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>122.0197119760541</v>
+        <v>433.9089158108957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43063.375</v>
+        <v>43067.375</v>
       </c>
       <c r="D11" t="n">
-        <v>147.2705996972035</v>
+        <v>434.3115324740729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43063.41666666666</v>
+        <v>43067.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>178.7029373308947</v>
+        <v>318.3643912533938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43063.45833333334</v>
+        <v>43067.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>193.2943269956907</v>
+        <v>302.9604973981916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43063.5</v>
+        <v>43067.5</v>
       </c>
       <c r="D14" t="n">
-        <v>167.8530347872637</v>
+        <v>245.9303489096532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43063.54166666666</v>
+        <v>43067.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>118.8128078117702</v>
+        <v>209.0745051956952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43063.58333333334</v>
+        <v>43067.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>71.73326656286402</v>
+        <v>168.1321946720433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43063.625</v>
+        <v>43067.625</v>
       </c>
       <c r="D17" t="n">
-        <v>32.36701916434602</v>
+        <v>133.0944996804208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43063.66666666666</v>
+        <v>43067.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.531280052131649</v>
+        <v>102.0279050645789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43063.70833333334</v>
+        <v>43067.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>-29.02413990384395</v>
+        <v>75.92757444276411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43063.75</v>
+        <v>43067.75</v>
       </c>
       <c r="D20" t="n">
-        <v>-53.29519856946146</v>
+        <v>54.74026076703906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43063.79166666666</v>
+        <v>43067.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>-72.98594492359706</v>
+        <v>38.21873638530543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43063.83333333334</v>
+        <v>43067.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>-88.59866241876563</v>
+        <v>25.90270970269719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43063.875</v>
+        <v>43067.875</v>
       </c>
       <c r="D23" t="n">
-        <v>-100.9720354760342</v>
+        <v>17.19358670237368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43063.91666666666</v>
+        <v>43067.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>-110.8417241948505</v>
+        <v>11.43100788080781</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43063.95833333334</v>
+        <v>43067.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-118.7762861905348</v>
+        <v>24.39583256774887</v>
       </c>
     </row>
   </sheetData>
@@ -709,81 +709,81 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43063</v>
+        <v>43067</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43063.04166666666</v>
+        <v>43067.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43063.08333333334</v>
+        <v>43067.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43063.125</v>
+        <v>43067.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43063.16666666666</v>
+        <v>43067.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43063.20833333334</v>
+        <v>43067.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43063.25</v>
+        <v>43067.25</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43063.29166666666</v>
+        <v>43067.29166666666</v>
       </c>
       <c r="D9" t="n">
         <v>45</v>
@@ -793,160 +793,160 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43063.33333333334</v>
+        <v>43067.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>436</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43063.375</v>
+        <v>43067.375</v>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43063.41666666666</v>
+        <v>43067.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>535</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43063.45833333334</v>
+        <v>43067.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43063.5</v>
+        <v>43067.5</v>
       </c>
       <c r="D14" t="n">
-        <v>279</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43063.54166666666</v>
+        <v>43067.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43063.58333333334</v>
+        <v>43067.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>174</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43063.625</v>
+        <v>43067.625</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43063.66666666666</v>
+        <v>43067.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43063.70833333334</v>
+        <v>43067.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43063.75</v>
+        <v>43067.75</v>
       </c>
       <c r="D20" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43063.79166666666</v>
+        <v>43067.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43063.83333333334</v>
+        <v>43067.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43063.875</v>
+        <v>43067.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43063.91666666666</v>
+        <v>43067.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43063.95833333334</v>
+        <v>43067.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
